--- a/HW4/temp_stat_synoptik.xlsx
+++ b/HW4/temp_stat_synoptik.xlsx
@@ -20,7 +20,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -28,16 +28,26 @@
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b val="1"/>
+      <sz val="12"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ffd966"/>
+        <bgColor rgb="00ffd966"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -45,12 +55,19 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -434,143 +451,158 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="29" customWidth="1" min="2" max="2"/>
+    <col width="24" customWidth="1" min="3" max="3"/>
+    <col width="29" customWidth="1" min="4" max="4"/>
+    <col width="30" customWidth="1" min="5" max="5"/>
+    <col width="29" customWidth="1" min="6" max="6"/>
+    <col width="30" customWidth="1" min="7" max="7"/>
+    <col width="29" customWidth="1" min="8" max="8"/>
+    <col width="30" customWidth="1" min="9" max="9"/>
+    <col width="30" customWidth="1" min="10" max="10"/>
+    <col width="30" customWidth="1" min="11" max="11"/>
+    <col width="29" customWidth="1" min="12" max="12"/>
+    <col width="30" customWidth="1" min="13" max="13"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Дата</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Поточна температура</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Мінімальна температура (День 1)</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Максимальна температура (День 1)</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Мінімальна температура (День 2)</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Мінімальна температура (День 2)</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Мінімальна температура (День 3)</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Мінімальна температура (День 3)</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Максимальна температура (День 4)</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Максимальна температура (День 4)</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Максимальна температура (День 5)</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Максимальна температура (День 5)</t>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Поточна погода</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Мін. темп. (День 1)</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Макс. темп. (День 1)</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Мін. темп. (День 2)</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Макс. темп. (День 2)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Мін. темп. (День 3)</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Макс. темп. (День 3)</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Мін.. темп. (День 4)</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Макс. темп. (День 4)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Мін. темп. (День 5)</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Макс. темп. (День 5)</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-03-05</t>
+          <t>2025-03-06</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>Сплошная облачность</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>6</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
       <c r="M2" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
         <is>
           <t>14</t>
         </is>
@@ -587,143 +619,153 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="29" customWidth="1" min="2" max="2"/>
+    <col width="24" customWidth="1" min="3" max="3"/>
+    <col width="29" customWidth="1" min="4" max="4"/>
+    <col width="30" customWidth="1" min="5" max="5"/>
+    <col width="29" customWidth="1" min="6" max="6"/>
+    <col width="30" customWidth="1" min="7" max="7"/>
+    <col width="29" customWidth="1" min="8" max="8"/>
+    <col width="30" customWidth="1" min="9" max="9"/>
+    <col width="30" customWidth="1" min="10" max="10"/>
+    <col width="30" customWidth="1" min="11" max="11"/>
+    <col width="29" customWidth="1" min="12" max="12"/>
+    <col width="30" customWidth="1" min="13" max="13"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Дата</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Поточна температура</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Мінімальна температура (День 1)</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Максимальна температура (День 1)</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Мінімальна температура (День 2)</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Мінімальна температура (День 2)</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Мінімальна температура (День 3)</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Мінімальна температура (День 3)</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Максимальна температура (День 4)</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Максимальна температура (День 4)</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Максимальна температура (День 5)</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Максимальна температура (День 5)</t>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Поточна погода</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Мін. темп. (День 1)</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Макс. темп. (День 1)</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Мін. темп. (День 2)</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Макс. темп. (День 2)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Мін. темп. (День 3)</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Макс. темп. (День 3)</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Мін.. темп. (День 4)</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Макс. темп. (День 4)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Мін. темп. (День 5)</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Макс. темп. (День 5)</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-03-05</t>
+          <t>2025-03-06</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>-2</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
       <c r="M2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
         <is>
           <t>18</t>
         </is>
@@ -740,143 +782,158 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="29" customWidth="1" min="2" max="2"/>
+    <col width="24" customWidth="1" min="3" max="3"/>
+    <col width="29" customWidth="1" min="4" max="4"/>
+    <col width="30" customWidth="1" min="5" max="5"/>
+    <col width="29" customWidth="1" min="6" max="6"/>
+    <col width="30" customWidth="1" min="7" max="7"/>
+    <col width="29" customWidth="1" min="8" max="8"/>
+    <col width="30" customWidth="1" min="9" max="9"/>
+    <col width="30" customWidth="1" min="10" max="10"/>
+    <col width="30" customWidth="1" min="11" max="11"/>
+    <col width="29" customWidth="1" min="12" max="12"/>
+    <col width="30" customWidth="1" min="13" max="13"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Дата</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Поточна температура</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Мінімальна температура (День 1)</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Максимальна температура (День 1)</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Мінімальна температура (День 2)</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Мінімальна температура (День 2)</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Мінімальна температура (День 3)</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Мінімальна температура (День 3)</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Максимальна температура (День 4)</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Максимальна температура (День 4)</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Максимальна температура (День 5)</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Максимальна температура (День 5)</t>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Поточна погода</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Мін. темп. (День 1)</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Макс. темп. (День 1)</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Мін. темп. (День 2)</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Макс. темп. (День 2)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Мін. темп. (День 3)</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Макс. темп. (День 3)</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Мін.. темп. (День 4)</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Макс. темп. (День 4)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Мін. темп. (День 5)</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Макс. темп. (День 5)</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-03-05</t>
+          <t>2025-03-06</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>Сплошная облачность</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>16</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
           <t>16</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>15</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
           <t>15</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>3</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
         <is>
           <t>14</t>
         </is>
